--- a/PosterResults.xlsx
+++ b/PosterResults.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="319" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="110" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluaciones temporales" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="196">
   <si>
     <t>ID PRUEBA</t>
   </si>
@@ -619,6 +619,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -636,39 +637,29 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <b val="true"/>
       <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CC00"/>
-        <bgColor rgb="FF009900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -790,7 +781,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -814,10 +805,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -826,7 +815,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -838,7 +827,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -846,7 +835,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -854,7 +843,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -862,11 +851,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -882,11 +871,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -898,35 +887,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -939,18 +916,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="TRUE" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="FALSE" xfId="21" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <font>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00CC00"/>
@@ -958,6 +939,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -989,7 +976,7 @@
       <rgbColor rgb="FF99FFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0084D1"/>
+      <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000099"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -1021,14 +1008,14 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF3333FF"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1042,7 +1029,326 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300">
+              <a:rPr b="1" sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Matches in experiments</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Evaluaciones temporales'!$B$159</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Correct Match %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00cc00"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="00cc00"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:size val="6"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Evaluaciones temporales'!$A$160:$A$163</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Evaluaciones temporales'!$B$160:$B$163</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>32.448388590778</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.1064961157301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.5685652696148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.6608868105376</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Evaluaciones temporales'!$C$159</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Incorrect Match %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff0000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:size val="6"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Evaluaciones temporales'!$A$160:$A$163</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Evaluaciones temporales'!$C$160:$C$163</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>67.551611409222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.8935038842699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.4314347303852</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.3391131894624</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="23854923"/>
+        <c:axId val="98004727"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="23854923"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Experiments</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="98004727"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="98004727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Percentages</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="23854923"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1300">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>User 1 Results</a:t>
@@ -1053,7 +1359,7 @@
       <c:layout/>
     </c:title>
     <c:view3D>
-      <c:rotX val="11"/>
+      <c:rotX val="12"/>
       <c:rotY val="25"/>
       <c:rAngAx val="1"/>
       <c:perspective val="40"/>
@@ -1099,7 +1405,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="0084d1"/>
+              <a:srgbClr val="ffd320"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1111,16 +1417,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>B</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>C</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>D</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1175,16 +1481,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>B</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>C</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>D</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1213,12 +1519,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="47794086"/>
-        <c:axId val="70337218"/>
+        <c:axId val="18287556"/>
+        <c:axId val="60979111"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="47794086"/>
+        <c:axId val="18287556"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1234,7 +1540,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900">
+                  <a:rPr b="1" sz="900">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Experiments</a:t>
@@ -1254,14 +1560,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="70337218"/>
+        <c:crossAx val="60979111"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70337218"/>
+        <c:axId val="60979111"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1286,7 +1592,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900">
+                  <a:rPr b="1" sz="900">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Percentages</a:t>
@@ -1306,8 +1612,8 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="47794086"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="18287556"/>
+        <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1341,7 +1647,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1355,7 +1661,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300">
+              <a:rPr b="1" sz="1300">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>User 2 Results</a:t>
@@ -1366,7 +1672,7 @@
       <c:layout/>
     </c:title>
     <c:view3D>
-      <c:rotX val="11"/>
+      <c:rotX val="12"/>
       <c:rotY val="25"/>
       <c:rAngAx val="1"/>
       <c:perspective val="40"/>
@@ -1424,16 +1730,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>B</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>C</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>D</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1488,16 +1794,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>B</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>C</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>D</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1526,12 +1832,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="78210892"/>
-        <c:axId val="33568552"/>
+        <c:axId val="36313353"/>
+        <c:axId val="93717120"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="78210892"/>
+        <c:axId val="36313353"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1547,7 +1853,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900">
+                  <a:rPr b="1" sz="900">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Experiments</a:t>
@@ -1567,14 +1873,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="33568552"/>
+        <c:crossAx val="93717120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33568552"/>
+        <c:axId val="93717120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1599,7 +1905,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900">
+                  <a:rPr b="1" sz="900">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Percentages</a:t>
@@ -1619,8 +1925,8 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="78210892"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="36313353"/>
+        <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1654,7 +1960,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1668,7 +1974,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300">
+              <a:rPr b="1" sz="1300">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>User 3 Results</a:t>
@@ -1679,7 +1985,7 @@
       <c:layout/>
     </c:title>
     <c:view3D>
-      <c:rotX val="11"/>
+      <c:rotX val="12"/>
       <c:rotY val="25"/>
       <c:rAngAx val="1"/>
       <c:perspective val="40"/>
@@ -1725,7 +2031,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ffff00"/>
+              <a:srgbClr val="3333ff"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1737,16 +2043,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>B</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>C</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>D</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1801,16 +2107,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>B</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>C</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>D</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1839,12 +2145,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="23910745"/>
-        <c:axId val="85795272"/>
+        <c:axId val="2565543"/>
+        <c:axId val="58985410"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="23910745"/>
+        <c:axId val="2565543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1860,7 +2166,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900">
+                  <a:rPr b="1" sz="900">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Experiments</a:t>
@@ -1880,14 +2186,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="85795272"/>
+        <c:crossAx val="58985410"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85795272"/>
+        <c:axId val="58985410"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1912,7 +2218,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900">
+                  <a:rPr b="1" sz="900">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Percetages</a:t>
@@ -1932,327 +2238,8 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="23910745"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr sz="1300">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Matches in experiments</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Evaluaciones temporales'!$B$159</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Correct Match %</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00cc00"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="00cc00"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:size val="7"/>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Evaluaciones temporales'!$A$160:$A$163</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Evaluaciones temporales'!$B$160:$B$163</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>32.448388590778</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36.1064961157301</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36.5685652696148</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>34.6608868105376</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Evaluaciones temporales'!$C$159</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Incorrect Match %</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff0000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:size val="7"/>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Evaluaciones temporales'!$A$160:$A$163</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Evaluaciones temporales'!$C$160:$C$163</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>67.551611409222</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>63.8935038842699</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>63.4314347303852</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>65.3391131894624</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="52719184"/>
-        <c:axId val="83696130"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="52719184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Experiments</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="83696130"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="83696130"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Percentages</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="52719184"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="2565543"/>
+        <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2291,15 +2278,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>138240</xdr:colOff>
+      <xdr:colOff>165240</xdr:colOff>
       <xdr:row>191</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>786960</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1080</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>105480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2307,8 +2294,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="138240" y="31173480"/>
-        <a:ext cx="5755320" cy="3241440"/>
+        <a:off x="165240" y="31164480"/>
+        <a:ext cx="5754960" cy="3241080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2321,15 +2308,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>418320</xdr:colOff>
+      <xdr:colOff>445320</xdr:colOff>
       <xdr:row>191</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:rowOff>29520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>469440</xdr:colOff>
+      <xdr:colOff>496080</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2337,8 +2324,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6337440" y="31087440"/>
-        <a:ext cx="5755320" cy="3232080"/>
+        <a:off x="6364440" y="31078440"/>
+        <a:ext cx="5754960" cy="3231720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2351,15 +2338,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>300240</xdr:colOff>
+      <xdr:colOff>327240</xdr:colOff>
       <xdr:row>166</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:rowOff>96480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>351360</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>186</xdr:row>
-      <xdr:rowOff>96120</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2367,8 +2354,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6219360" y="27090360"/>
-        <a:ext cx="5755320" cy="3241800"/>
+        <a:off x="6246360" y="27081360"/>
+        <a:ext cx="5754960" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2381,15 +2368,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>627840</xdr:colOff>
+      <xdr:colOff>654840</xdr:colOff>
       <xdr:row>166</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>106200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>806400</xdr:colOff>
+      <xdr:colOff>833040</xdr:colOff>
       <xdr:row>186</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:rowOff>96120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2397,8 +2384,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12251160" y="27100080"/>
-        <a:ext cx="5755320" cy="3241440"/>
+        <a:off x="12278160" y="27091080"/>
+        <a:ext cx="5754960" cy="3241080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2418,8 +2405,8 @@
   </sheetPr>
   <dimension ref="A1:V184"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J215" activeCellId="0" sqref="J215"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J192" activeCellId="0" sqref="J192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4704,7 +4691,7 @@
         <f aca="false">C66/D66*100</f>
         <v>99.1525423728814</v>
       </c>
-      <c r="D73" s="20" t="n">
+      <c r="D73" s="8" t="n">
         <f aca="false">IF((B73+C73)=100)</f>
         <v>1</v>
       </c>
@@ -4719,7 +4706,7 @@
         <f aca="false">H66/I66*100</f>
         <v>92.7582534611289</v>
       </c>
-      <c r="I73" s="20" t="n">
+      <c r="I73" s="8" t="n">
         <f aca="false">IF((G73+H73)=100)</f>
         <v>1</v>
       </c>
@@ -4734,7 +4721,7 @@
         <f aca="false">M66/N66*100</f>
         <v>0</v>
       </c>
-      <c r="N73" s="20" t="n">
+      <c r="N73" s="8" t="n">
         <f aca="false">IF((L73+M73)=100)</f>
         <v>1</v>
       </c>
@@ -4749,7 +4736,7 @@
         <f aca="false">R66/S66*100</f>
         <v>96.3074604370761</v>
       </c>
-      <c r="S73" s="20" t="n">
+      <c r="S73" s="8" t="n">
         <f aca="false">IF((Q73+R73)=100)</f>
         <v>1</v>
       </c>
@@ -4774,7 +4761,7 @@
         <f aca="false">C67/D67*100</f>
         <v>71.0398445092323</v>
       </c>
-      <c r="D74" s="20" t="n">
+      <c r="D74" s="8" t="n">
         <f aca="false">IF((B74+C74)=100)</f>
         <v>1</v>
       </c>
@@ -4789,7 +4776,7 @@
         <f aca="false">H67/I67*100</f>
         <v>73.323720259553</v>
       </c>
-      <c r="I74" s="20" t="n">
+      <c r="I74" s="8" t="n">
         <f aca="false">IF((G74+H74)=100)</f>
         <v>1</v>
       </c>
@@ -4804,7 +4791,7 @@
         <f aca="false">M67/N67*100</f>
         <v>78.3044667274385</v>
       </c>
-      <c r="N74" s="20" t="n">
+      <c r="N74" s="8" t="n">
         <f aca="false">IF((L74+M74)=100)</f>
         <v>1</v>
       </c>
@@ -4819,7 +4806,7 @@
         <f aca="false">R67/S67*100</f>
         <v>76.0017809439003</v>
       </c>
-      <c r="S74" s="20" t="n">
+      <c r="S74" s="8" t="n">
         <f aca="false">IF((Q74+R74)=100)</f>
         <v>1</v>
       </c>
@@ -4844,7 +4831,7 @@
         <f aca="false">C68/D68*100</f>
         <v>0</v>
       </c>
-      <c r="D75" s="20" t="n">
+      <c r="D75" s="8" t="n">
         <f aca="false">IF((B75+C75)=100)</f>
         <v>1</v>
       </c>
@@ -4859,7 +4846,7 @@
         <f aca="false">H68/I68*100</f>
         <v>0</v>
       </c>
-      <c r="I75" s="20" t="n">
+      <c r="I75" s="8" t="n">
         <f aca="false">IF((G75+H75)=100)</f>
         <v>1</v>
       </c>
@@ -4874,7 +4861,7 @@
         <f aca="false">M68/N68*100</f>
         <v>40.33535165347</v>
       </c>
-      <c r="N75" s="20" t="n">
+      <c r="N75" s="8" t="n">
         <f aca="false">IF((L75+M75)=100)</f>
         <v>1</v>
       </c>
@@ -4889,7 +4876,7 @@
         <f aca="false">R68/S68*100</f>
         <v>0</v>
       </c>
-      <c r="S75" s="20" t="n">
+      <c r="S75" s="8" t="n">
         <f aca="false">IF((Q75+R75)=100)</f>
         <v>1</v>
       </c>
@@ -4903,10 +4890,10 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="21"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="23"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="4"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
@@ -5938,7 +5925,7 @@
         <f aca="false">C106/D106*100</f>
         <v>93.8202247191011</v>
       </c>
-      <c r="D113" s="20" t="n">
+      <c r="D113" s="8" t="n">
         <f aca="false">IF((B113+C113)=100)</f>
         <v>1</v>
       </c>
@@ -5953,7 +5940,7 @@
         <f aca="false">H106/I106*100</f>
         <v>0</v>
       </c>
-      <c r="I113" s="20" t="n">
+      <c r="I113" s="8" t="n">
         <f aca="false">IF((G113+H113)=100)</f>
         <v>1</v>
       </c>
@@ -5968,7 +5955,7 @@
         <f aca="false">M106/N106*100</f>
         <v>97.1279373368146</v>
       </c>
-      <c r="N113" s="20" t="n">
+      <c r="N113" s="8" t="n">
         <f aca="false">IF((L113+M113)=100)</f>
         <v>1</v>
       </c>
@@ -5983,7 +5970,7 @@
         <f aca="false">R106/S106*100</f>
         <v>0</v>
       </c>
-      <c r="S113" s="20" t="n">
+      <c r="S113" s="8" t="n">
         <f aca="false">IF((Q113+R113)=100)</f>
         <v>1</v>
       </c>
@@ -6008,7 +5995,7 @@
         <f aca="false">C107/D107*100</f>
         <v>71.7921527041357</v>
       </c>
-      <c r="D114" s="20" t="n">
+      <c r="D114" s="8" t="n">
         <f aca="false">IF((B114+C114)=100)</f>
         <v>1</v>
       </c>
@@ -6023,7 +6010,7 @@
         <f aca="false">H107/I107*100</f>
         <v>71.045871559633</v>
       </c>
-      <c r="I114" s="20" t="n">
+      <c r="I114" s="8" t="n">
         <f aca="false">IF((G114+H114)=100)</f>
         <v>1</v>
       </c>
@@ -6038,7 +6025,7 @@
         <f aca="false">M107/N107*100</f>
         <v>73.6828377673448</v>
       </c>
-      <c r="N114" s="20" t="n">
+      <c r="N114" s="8" t="n">
         <f aca="false">IF((L114+M114)=100)</f>
         <v>1</v>
       </c>
@@ -6053,7 +6040,7 @@
         <f aca="false">R107/S107*100</f>
         <v>74.7944612721765</v>
       </c>
-      <c r="S114" s="20" t="n">
+      <c r="S114" s="8" t="n">
         <f aca="false">IF((Q114+R114)=100)</f>
         <v>1</v>
       </c>
@@ -6078,7 +6065,7 @@
         <f aca="false">C108/D108*100</f>
         <v>0</v>
       </c>
-      <c r="D115" s="20" t="n">
+      <c r="D115" s="8" t="n">
         <f aca="false">IF((B115+C115)=100)</f>
         <v>1</v>
       </c>
@@ -6093,7 +6080,7 @@
         <f aca="false">H108/I108*100</f>
         <v>44.4376899696049</v>
       </c>
-      <c r="I115" s="20" t="n">
+      <c r="I115" s="8" t="n">
         <f aca="false">IF((G115+H115)=100)</f>
         <v>1</v>
       </c>
@@ -6108,7 +6095,7 @@
         <f aca="false">M108/N108*100</f>
         <v>0</v>
       </c>
-      <c r="N115" s="20" t="n">
+      <c r="N115" s="8" t="n">
         <f aca="false">IF((L115+M115)=100)</f>
         <v>1</v>
       </c>
@@ -6123,7 +6110,7 @@
         <f aca="false">R108/S108*100</f>
         <v>52.4256013045251</v>
       </c>
-      <c r="S115" s="20" t="n">
+      <c r="S115" s="8" t="n">
         <f aca="false">IF((Q115+R115)=100)</f>
         <v>1</v>
       </c>
@@ -7166,7 +7153,7 @@
         <f aca="false">C146/D146*100</f>
         <v>99.163179916318</v>
       </c>
-      <c r="D153" s="20" t="n">
+      <c r="D153" s="8" t="n">
         <f aca="false">IF((B153+C153)=100)</f>
         <v>1</v>
       </c>
@@ -7181,7 +7168,7 @@
         <f aca="false">H146/I146*100</f>
         <v>94.8870392390012</v>
       </c>
-      <c r="I153" s="20" t="n">
+      <c r="I153" s="8" t="n">
         <f aca="false">IF((G153+H153)=100)</f>
         <v>1</v>
       </c>
@@ -7196,7 +7183,7 @@
         <f aca="false">M146/N146*100</f>
         <v>92.8825622775801</v>
       </c>
-      <c r="N153" s="20" t="n">
+      <c r="N153" s="8" t="n">
         <f aca="false">IF((L153+M153)=100)</f>
         <v>1</v>
       </c>
@@ -7211,7 +7198,7 @@
         <f aca="false">R146/S146*100</f>
         <v>0</v>
       </c>
-      <c r="S153" s="20" t="n">
+      <c r="S153" s="8" t="n">
         <f aca="false">IF((Q153+R153)=100)</f>
         <v>1</v>
       </c>
@@ -7236,7 +7223,7 @@
         <f aca="false">C147/D147*100</f>
         <v>69.481981981982</v>
       </c>
-      <c r="D154" s="20" t="n">
+      <c r="D154" s="8" t="n">
         <f aca="false">IF((B154+C154)=100)</f>
         <v>1</v>
       </c>
@@ -7251,7 +7238,7 @@
         <f aca="false">H147/I147*100</f>
         <v>75.9705488621151</v>
       </c>
-      <c r="I154" s="20" t="n">
+      <c r="I154" s="8" t="n">
         <f aca="false">IF((G154+H154)=100)</f>
         <v>1</v>
       </c>
@@ -7266,7 +7253,7 @@
         <f aca="false">M147/N147*100</f>
         <v>74.916730719959</v>
       </c>
-      <c r="N154" s="20" t="n">
+      <c r="N154" s="8" t="n">
         <f aca="false">IF((L154+M154)=100)</f>
         <v>1</v>
       </c>
@@ -7281,7 +7268,7 @@
         <f aca="false">R147/S147*100</f>
         <v>72.5164011246485</v>
       </c>
-      <c r="S154" s="20" t="n">
+      <c r="S154" s="8" t="n">
         <f aca="false">IF((Q154+R154)=100)</f>
         <v>1</v>
       </c>
@@ -7306,7 +7293,7 @@
         <f aca="false">C148/D148*100</f>
         <v>0</v>
       </c>
-      <c r="D155" s="20" t="n">
+      <c r="D155" s="8" t="n">
         <f aca="false">IF((B155+C155)=100)</f>
         <v>1</v>
       </c>
@@ -7321,7 +7308,7 @@
         <f aca="false">H148/I148*100</f>
         <v>0</v>
       </c>
-      <c r="I155" s="20" t="n">
+      <c r="I155" s="8" t="n">
         <f aca="false">IF((G155+H155)=100)</f>
         <v>1</v>
       </c>
@@ -7336,7 +7323,7 @@
         <f aca="false">M148/N148*100</f>
         <v>0</v>
       </c>
-      <c r="N155" s="20" t="n">
+      <c r="N155" s="8" t="n">
         <f aca="false">IF((L155+M155)=100)</f>
         <v>1</v>
       </c>
@@ -7351,7 +7338,7 @@
         <f aca="false">R148/S148*100</f>
         <v>45.6510809451986</v>
       </c>
-      <c r="S155" s="20" t="n">
+      <c r="S155" s="8" t="n">
         <f aca="false">IF((Q155+R155)=100)</f>
         <v>1</v>
       </c>
@@ -7365,34 +7352,34 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="24"/>
-      <c r="B159" s="24" t="s">
+      <c r="A159" s="21"/>
+      <c r="B159" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="C159" s="24" t="s">
+      <c r="C159" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="D159" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E159" s="24" t="n">
+      <c r="D159" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E159" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="F159" s="24" t="n">
+      <c r="F159" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="G159" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H159" s="24" t="n">
+      <c r="G159" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H159" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="I159" s="24" t="n">
+      <c r="I159" s="21" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="24" t="s">
+      <c r="A160" s="21" t="n">
         <v>1</v>
       </c>
       <c r="B160" s="10" t="n">
@@ -7429,8 +7416,8 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="24" t="s">
-        <v>70</v>
+      <c r="A161" s="21" t="n">
+        <v>2</v>
       </c>
       <c r="B161" s="10" t="n">
         <f aca="false">V52</f>
@@ -7466,8 +7453,8 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="24" t="s">
-        <v>111</v>
+      <c r="A162" s="21" t="n">
+        <v>3</v>
       </c>
       <c r="B162" s="10" t="n">
         <f aca="false">V92</f>
@@ -7503,8 +7490,8 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="24" t="s">
-        <v>151</v>
+      <c r="A163" s="21" t="n">
+        <v>4</v>
       </c>
       <c r="B163" s="10" t="n">
         <f aca="false">V132</f>
@@ -7540,7 +7527,7 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="24"/>
+      <c r="A164" s="21"/>
       <c r="B164" s="10" t="n">
         <f aca="false">B160+B161+B162+B163</f>
         <v>139.784336786661</v>
@@ -7575,57 +7562,57 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="25" t="s">
+      <c r="A165" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="B165" s="26" t="n">
+      <c r="B165" s="23" t="n">
         <f aca="false">B164/4</f>
         <v>34.9460841966651</v>
       </c>
-      <c r="C165" s="26" t="n">
+      <c r="C165" s="23" t="n">
         <f aca="false">C164/4</f>
         <v>65.0539158033349</v>
       </c>
-      <c r="D165" s="26" t="n">
+      <c r="D165" s="23" t="n">
         <f aca="false">D164/4</f>
         <v>45.9190681115209</v>
       </c>
-      <c r="E165" s="26" t="n">
+      <c r="E165" s="23" t="n">
         <f aca="false">E164/4</f>
         <v>25.5636418849752</v>
       </c>
-      <c r="F165" s="26" t="n">
+      <c r="F165" s="23" t="n">
         <f aca="false">F164/4</f>
         <v>79.3123787246263</v>
       </c>
-      <c r="G165" s="26" t="n">
+      <c r="G165" s="23" t="n">
         <f aca="false">G164/4</f>
         <v>54.0809318884791</v>
       </c>
-      <c r="H165" s="26" t="n">
+      <c r="H165" s="23" t="n">
         <f aca="false">H164/4</f>
         <v>74.4363581150248</v>
       </c>
-      <c r="I165" s="26" t="n">
+      <c r="I165" s="23" t="n">
         <f aca="false">I164/4</f>
         <v>20.6876212753737</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="24"/>
-      <c r="B168" s="27" t="s">
+      <c r="A168" s="21"/>
+      <c r="B168" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C168" s="27" t="s">
+      <c r="C168" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="D168" s="28"/>
-      <c r="E168" s="29"/>
-      <c r="F168" s="29"/>
-      <c r="G168" s="29"/>
+      <c r="D168" s="25"/>
+      <c r="E168" s="26"/>
+      <c r="F168" s="26"/>
+      <c r="G168" s="26"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="24" t="s">
+      <c r="A169" s="21" t="n">
         <v>1</v>
       </c>
       <c r="B169" s="10" t="n">
@@ -7634,14 +7621,14 @@
       <c r="C169" s="10" t="n">
         <v>24.798927613941</v>
       </c>
-      <c r="D169" s="28"/>
-      <c r="E169" s="29"/>
-      <c r="F169" s="29"/>
-      <c r="G169" s="29"/>
+      <c r="D169" s="25"/>
+      <c r="E169" s="26"/>
+      <c r="F169" s="26"/>
+      <c r="G169" s="26"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="24" t="s">
-        <v>70</v>
+      <c r="A170" s="21" t="n">
+        <v>2</v>
       </c>
       <c r="B170" s="10" t="n">
         <v>27.9454359322284</v>
@@ -7649,16 +7636,16 @@
       <c r="C170" s="10" t="n">
         <v>72.0545640677716</v>
       </c>
-      <c r="D170" s="28"/>
-      <c r="E170" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F170" s="29"/>
-      <c r="G170" s="29"/>
+      <c r="D170" s="25"/>
+      <c r="E170" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F170" s="26"/>
+      <c r="G170" s="26"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="24" t="s">
-        <v>111</v>
+      <c r="A171" s="21" t="n">
+        <v>3</v>
       </c>
       <c r="B171" s="10" t="n">
         <v>52.2629594860211</v>
@@ -7666,14 +7653,14 @@
       <c r="C171" s="10" t="n">
         <v>47.7370405139789</v>
       </c>
-      <c r="D171" s="28"/>
-      <c r="E171" s="29"/>
-      <c r="F171" s="29"/>
-      <c r="G171" s="29"/>
+      <c r="D171" s="25"/>
+      <c r="E171" s="26"/>
+      <c r="F171" s="26"/>
+      <c r="G171" s="26"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="24" t="s">
-        <v>151</v>
+      <c r="A172" s="21" t="n">
+        <v>4</v>
       </c>
       <c r="B172" s="10" t="n">
         <v>28.2668046417752</v>
@@ -7681,22 +7668,22 @@
       <c r="C172" s="10" t="n">
         <v>71.7331953582248</v>
       </c>
-      <c r="D172" s="28"/>
-      <c r="E172" s="29"/>
-      <c r="F172" s="29"/>
-      <c r="G172" s="29"/>
+      <c r="D172" s="25"/>
+      <c r="E172" s="26"/>
+      <c r="F172" s="26"/>
+      <c r="G172" s="26"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="24"/>
-      <c r="B174" s="27" t="s">
+      <c r="A174" s="21"/>
+      <c r="B174" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C174" s="27" t="s">
+      <c r="C174" s="24" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="24" t="s">
+      <c r="A175" s="21" t="n">
         <v>1</v>
       </c>
       <c r="B175" s="10" t="n">
@@ -7707,8 +7694,8 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="24" t="s">
-        <v>70</v>
+      <c r="A176" s="21" t="n">
+        <v>2</v>
       </c>
       <c r="B176" s="10" t="n">
         <v>25.332546889969</v>
@@ -7721,8 +7708,8 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="24" t="s">
-        <v>111</v>
+      <c r="A177" s="21" t="n">
+        <v>3</v>
       </c>
       <c r="B177" s="10" t="n">
         <v>27.1711691741775</v>
@@ -7732,8 +7719,8 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="24" t="s">
-        <v>151</v>
+      <c r="A178" s="21" t="n">
+        <v>4</v>
       </c>
       <c r="B178" s="10" t="n">
         <v>26.7785843278238</v>
@@ -7743,16 +7730,16 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="24"/>
-      <c r="B180" s="27" t="s">
+      <c r="A180" s="21"/>
+      <c r="B180" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C180" s="27" t="s">
+      <c r="C180" s="24" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="24" t="s">
+      <c r="A181" s="21" t="n">
         <v>1</v>
       </c>
       <c r="B181" s="10" t="n">
@@ -7763,8 +7750,8 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="24" t="s">
-        <v>70</v>
+      <c r="A182" s="21" t="n">
+        <v>2</v>
       </c>
       <c r="B182" s="10" t="n">
         <v>89.9161620866325</v>
@@ -7777,8 +7764,8 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="24" t="s">
-        <v>111</v>
+      <c r="A183" s="21" t="n">
+        <v>3</v>
       </c>
       <c r="B183" s="10" t="n">
         <v>75.7841771814675</v>
@@ -7788,8 +7775,8 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="24" t="s">
-        <v>151</v>
+      <c r="A184" s="21" t="n">
+        <v>4</v>
       </c>
       <c r="B184" s="10" t="n">
         <v>88.5872297637004</v>
@@ -8339,39 +8326,42 @@
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="B3" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="n">
         <v>3</v>
       </c>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="24" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="n">
@@ -8394,7 +8384,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>70</v>
       </c>
       <c r="B6" s="10" t="n">
@@ -8417,7 +8407,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="21" t="s">
         <v>111</v>
       </c>
       <c r="B7" s="10" t="n">
@@ -8440,7 +8430,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="21" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="10" t="n">
@@ -8470,7 +8460,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/PosterResults.xlsx
+++ b/PosterResults.xlsx
@@ -1069,7 +1069,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -1146,7 +1146,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -1198,11 +1198,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="23854923"/>
-        <c:axId val="98004727"/>
+        <c:axId val="74652333"/>
+        <c:axId val="2171648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="23854923"/>
+        <c:axId val="74652333"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1247,14 +1247,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="98004727"/>
+        <c:crossAx val="2171648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98004727"/>
+        <c:axId val="2171648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1299,7 +1299,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="23854923"/>
+        <c:crossAx val="74652333"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1359,8 +1359,8 @@
       <c:layout/>
     </c:title>
     <c:view3D>
-      <c:rotX val="12"/>
-      <c:rotY val="25"/>
+      <c:rotX val="13"/>
+      <c:rotY val="24"/>
       <c:rAngAx val="1"/>
       <c:perspective val="40"/>
     </c:view3D>
@@ -1519,12 +1519,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="18287556"/>
-        <c:axId val="60979111"/>
+        <c:axId val="94756872"/>
+        <c:axId val="48929014"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="18287556"/>
+        <c:axId val="94756872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1560,14 +1560,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="60979111"/>
+        <c:crossAx val="48929014"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60979111"/>
+        <c:axId val="48929014"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1612,7 +1612,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="18287556"/>
+        <c:crossAx val="94756872"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1672,8 +1672,8 @@
       <c:layout/>
     </c:title>
     <c:view3D>
-      <c:rotX val="12"/>
-      <c:rotY val="25"/>
+      <c:rotX val="13"/>
+      <c:rotY val="24"/>
       <c:rAngAx val="1"/>
       <c:perspective val="40"/>
     </c:view3D>
@@ -1832,12 +1832,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="36313353"/>
-        <c:axId val="93717120"/>
+        <c:axId val="69162335"/>
+        <c:axId val="78040891"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="36313353"/>
+        <c:axId val="69162335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1873,14 +1873,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="93717120"/>
+        <c:crossAx val="78040891"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93717120"/>
+        <c:axId val="78040891"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1925,7 +1925,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="36313353"/>
+        <c:crossAx val="69162335"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1985,8 +1985,8 @@
       <c:layout/>
     </c:title>
     <c:view3D>
-      <c:rotX val="12"/>
-      <c:rotY val="25"/>
+      <c:rotX val="13"/>
+      <c:rotY val="24"/>
       <c:rAngAx val="1"/>
       <c:perspective val="40"/>
     </c:view3D>
@@ -2145,12 +2145,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="2565543"/>
-        <c:axId val="58985410"/>
+        <c:axId val="8157547"/>
+        <c:axId val="33454440"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2565543"/>
+        <c:axId val="8157547"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2186,14 +2186,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="58985410"/>
+        <c:crossAx val="33454440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58985410"/>
+        <c:axId val="33454440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2238,7 +2238,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2565543"/>
+        <c:crossAx val="8157547"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2278,15 +2278,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>165240</xdr:colOff>
+      <xdr:colOff>192240</xdr:colOff>
       <xdr:row>191</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
+      <xdr:rowOff>106560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:colOff>27720</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:rowOff>96120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2294,8 +2294,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="165240" y="31164480"/>
-        <a:ext cx="5754960" cy="3241080"/>
+        <a:off x="192240" y="31155480"/>
+        <a:ext cx="5754600" cy="3240720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2308,15 +2308,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>445320</xdr:colOff>
+      <xdr:colOff>472320</xdr:colOff>
       <xdr:row>191</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>496080</xdr:colOff>
+      <xdr:colOff>522720</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2324,8 +2324,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6364440" y="31078440"/>
-        <a:ext cx="5754960" cy="3231720"/>
+        <a:off x="6391440" y="31069440"/>
+        <a:ext cx="5754600" cy="3231360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2338,15 +2338,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>327240</xdr:colOff>
+      <xdr:colOff>354240</xdr:colOff>
       <xdr:row>166</xdr:row>
-      <xdr:rowOff>96480</xdr:rowOff>
+      <xdr:rowOff>87480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
+      <xdr:colOff>404640</xdr:colOff>
       <xdr:row>186</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2354,8 +2354,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6246360" y="27081360"/>
-        <a:ext cx="5754960" cy="3241440"/>
+        <a:off x="6273360" y="27072360"/>
+        <a:ext cx="5754600" cy="3241080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2368,15 +2368,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>654840</xdr:colOff>
+      <xdr:colOff>681840</xdr:colOff>
       <xdr:row>166</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>833040</xdr:colOff>
+      <xdr:colOff>859680</xdr:colOff>
       <xdr:row>186</xdr:row>
-      <xdr:rowOff>96120</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2384,8 +2384,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12278160" y="27091080"/>
-        <a:ext cx="5754960" cy="3241080"/>
+        <a:off x="12305160" y="27082080"/>
+        <a:ext cx="5754600" cy="3240720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2405,8 +2405,8 @@
   </sheetPr>
   <dimension ref="A1:V184"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J192" activeCellId="0" sqref="J192"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2749,7 +2749,9 @@
       <c r="A12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="11" t="n">
+        <v>2026</v>
+      </c>
       <c r="C12" s="10"/>
       <c r="D12" s="8"/>
       <c r="F12" s="10" t="s">
